--- a/RSDC Dev Plan-SwapnaBoga_II.xlsx
+++ b/RSDC Dev Plan-SwapnaBoga_II.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SBO014\OneDrive - AdventHealth\pcorp\RSDC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\w1-prdbiz03\WH Custom Folders\1-DEVELOPMENT\David Cornelius\Research\Swapna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E693A1A-4523-4245-89AC-257E55A57629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AF2887-9CD3-4B02-B0A0-351324DA2D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IDP_Career" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
   <si>
     <t>NAME:</t>
   </si>
@@ -219,92 +219,100 @@
     <t>Be an expert in EMR(EPIC) Health care Workflows and data</t>
   </si>
   <si>
-    <t>Erwin,Snowflake ,SQL,SSIS ,PowerBI,Snowflake data engineering,SnowPipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comprehensive training/certification </t>
-  </si>
-  <si>
-    <t>Achieving a new Epic certification.</t>
-  </si>
-  <si>
     <t xml:space="preserve">E-learning,Virtual  training 						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Successful course completion or Certified </t>
   </si>
   <si>
     <t xml:space="preserve">
 Assistance &amp; Direction</t>
   </si>
   <si>
+    <t>Swapna Boga</t>
+  </si>
+  <si>
+    <t>START DATE:</t>
+  </si>
+  <si>
+    <t>LAST UPDATED:</t>
+  </si>
+  <si>
+    <t>Develop a strong understanding of process workflows, input and output procedures, and surgical laboratory operations.</t>
+  </si>
+  <si>
+    <t>In the future, I plan to focus on learning data science.</t>
+  </si>
+  <si>
+    <t>Data Collection,Data Cleaning and Preprocessing,Data Visualization,Machine Learning,SnowPark,Supr=ervised Learning</t>
+  </si>
+  <si>
+    <t>11 months</t>
+  </si>
+  <si>
+    <t>Information Architect II</t>
+  </si>
+  <si>
+    <t>Identify and implement workflow automation solutions to reduce manual processes and increase efficiency in all RDSC Data Requests</t>
+  </si>
+  <si>
+    <t>Set up an efficient and secure data management system to streamline the collection, storage, and retrieval of research data.</t>
+  </si>
+  <si>
+    <t>Optimize Workflow  ETL~SQL  Automation</t>
+  </si>
+  <si>
+    <t>Gain experience in Data Migration,Data Processing,Data Integration data warehousing ,Interactive Visualizations,Embedded Analyticssolutions</t>
+  </si>
+  <si>
+    <t>ADF ,PowerBI,Snowflake data ,SnowPipe</t>
+  </si>
+  <si>
+    <t>Technical Training Sessions</t>
+  </si>
+  <si>
+    <t>Advanced Data Integration</t>
+  </si>
+  <si>
+    <t>Centralized Data Repositories and Enhanced Data Quality and Governance</t>
+  </si>
+  <si>
+    <t>•	Develop and maintain centralized data repositories that integrate data from various sources such epic,  (CTMS), and laboratory information Various Labs . This ensures comprehensive and accessible data for researchers.
+•	Data Cleaning and Validation to ensure accuracy and reliability of clinical data. Regularly audit data quality and address any discrepancies</t>
+  </si>
+  <si>
+    <t>Centralized Data Warehouse for Enhanced Data Quality and Governance</t>
+  </si>
+  <si>
+    <t>Adaptability and Continuous Feedback</t>
+  </si>
+  <si>
+    <t>Enhance communication, improve quality,  adapt quickly to changes and  Enhanced Decision-Making</t>
+  </si>
+  <si>
+    <t>•	 Implement peer review systems where colleagues provide feedback on each other's work, fostering a culture of continuous improvement and collaboration.
+•	Cross-Training:
+•	Document the  processes, solutions, and best practices. This will not help the RDSC team  in knowledge sharing but also in standardizing procedures across the team.</t>
+  </si>
+  <si>
+    <t>Cloud-based data integration and data analytics</t>
+  </si>
+  <si>
+    <t>Hands-On Projects</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-Reliable information or data that can be trusted and counted on for accuracy and consistency.</t>
-  </si>
-  <si>
-    <t>Swapna Boga</t>
-  </si>
-  <si>
-    <t>START DATE:</t>
-  </si>
-  <si>
-    <t>LAST UPDATED:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Acquire experience in designing and modeling data frames, data marts, data lakes, and data warehousing solutions.</t>
-  </si>
-  <si>
-    <t>Develop a strong understanding of process workflows, input and output procedures, and surgical laboratory operations.</t>
-  </si>
-  <si>
-    <t>Adaptability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adaptability,Data Analytics </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Analytics </t>
-  </si>
-  <si>
-    <t>Enhanced predictive abilities, combined with improved decision-making capabilities</t>
-  </si>
-  <si>
-    <t>•	Explore opportunities to enhance and strengthen the analytics capabilities.
-•	Collaborate with the team to initiate discussions and implement vital process enhancements within the BI team. These improvements will play a pivotal role in advancing our team outcomes and overall effectiveness.</t>
-  </si>
-  <si>
-    <t>Higher Productivity and Enhanced Decision-Making</t>
-  </si>
-  <si>
-    <t>Keeping up with technology, systems &amp; data  quality processes  (RDSC team)</t>
-  </si>
-  <si>
-    <t>•	Guarantee the provision of data, guidance, and input that is both accuracy, timeliness and reliable. 
-•	Uphold a friendly and approachable demeanor to positively shape RDSC’s team</t>
-  </si>
-  <si>
-    <t>In the future, I plan to focus on learning data science.</t>
-  </si>
-  <si>
-    <t>•	Collaborating with other experts in RDSC to gain insights and different perspectives is a valuable approach to enrich my understanding and improve my understanding and decision-making.
-•	Enhance my communication, teamwork which includes Active Listening, Effective  Communication  and seeking  feedback from the team.
-•	Using algorithms and statistical models to enable systems to learn patterns and make predictions or decisions without explicit programming.</t>
-  </si>
-  <si>
-    <t>Data Collection,Data Cleaning and Preprocessing,Data Visualization,Machine Learning,SnowPark,Supr=ervised Learning</t>
-  </si>
-  <si>
-    <t>11 months</t>
-  </si>
-  <si>
-    <t>Information Architect II</t>
-  </si>
-  <si>
-    <t>and clinicians to collect and combine data to make discoveries and to improve human health and wellness.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learn how data is stored and how best we can utilize </t>
+ Optimized Data Integration and Performance ,counted on for accuracy and consistency.</t>
+  </si>
+  <si>
+    <t>Course Completion  and Reflect the  Learnings</t>
+  </si>
+  <si>
+    <t>•Participate in live projects involving ADF  data integration or data analytics(PowerBI ) . This provides me with an practical experience data integration and  problem-solving skills.
+•Work on error handling strategies and best practices for handling data integration failures gracefully.</t>
+  </si>
+  <si>
+    <t>Implement a Data Management and Data Goverance FrameWork</t>
+  </si>
+  <si>
+    <t>I'm  dedicated to fostering collaboration between research  clinical teams  and technical teams, maintaining data integrity and security, and continuously improving the efficiency and effectiveness of healthcare delivery</t>
   </si>
 </sst>
 </file>
@@ -1127,12 +1135,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="38" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1142,59 +1156,53 @@
     <xf numFmtId="0" fontId="47" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="45" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1807,9 +1815,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>587375</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:rowOff>263525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1893,7 +1901,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>15875</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>285750</xdr:rowOff>
         </xdr:to>
@@ -1981,7 +1989,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>933450</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>333375</xdr:rowOff>
+          <xdr:rowOff>339725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2065,9 +2073,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>942975</xdr:colOff>
+          <xdr:colOff>949325</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>314325</xdr:rowOff>
+          <xdr:rowOff>320675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2151,7 +2159,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>942975</xdr:colOff>
+          <xdr:colOff>949325</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>285750</xdr:rowOff>
         </xdr:to>
@@ -2237,7 +2245,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>15875</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -2323,9 +2331,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>962025</xdr:colOff>
+          <xdr:colOff>968375</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>314325</xdr:rowOff>
+          <xdr:rowOff>320675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2502,7 +2510,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>1009650</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>314325</xdr:rowOff>
+          <xdr:rowOff>320675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2586,7 +2594,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>587375</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
@@ -2672,7 +2680,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>15875</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>285750</xdr:rowOff>
         </xdr:to>
@@ -2760,7 +2768,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>933450</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>333375</xdr:rowOff>
+          <xdr:rowOff>339725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2844,9 +2852,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>942975</xdr:colOff>
+          <xdr:colOff>949325</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>314325</xdr:rowOff>
+          <xdr:rowOff>320675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2930,7 +2938,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>942975</xdr:colOff>
+          <xdr:colOff>949325</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>285750</xdr:rowOff>
         </xdr:to>
@@ -3016,7 +3024,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>15875</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -3102,9 +3110,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>962025</xdr:colOff>
+          <xdr:colOff>968375</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>314325</xdr:rowOff>
+          <xdr:rowOff>320675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3188,7 +3196,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>981075</xdr:colOff>
+          <xdr:colOff>987425</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>285750</xdr:rowOff>
         </xdr:to>
@@ -3442,10 +3450,10 @@
     <tabColor theme="3"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:C15"/>
+    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3481,60 +3489,60 @@
       <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="85"/>
+      <c r="C2" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="82"/>
       <c r="E2" s="21"/>
       <c r="F2" s="3"/>
       <c r="G2" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="84">
+        <v>32</v>
+      </c>
+      <c r="H2" s="79">
         <v>45098</v>
       </c>
-      <c r="I2" s="84"/>
+      <c r="I2" s="79"/>
       <c r="J2" s="46" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K2" s="77">
         <v>45432</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="C4" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="C5" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -3556,45 +3564,45 @@
       <c r="K8" s="52"/>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
+      <c r="A9" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="79"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="79"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
     </row>
     <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="53"/>
@@ -3642,155 +3650,176 @@
       <c r="K14" s="70"/>
     </row>
     <row r="15" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="79"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="81"/>
+      <c r="A15" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="83"/>
     </row>
     <row r="16" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="83"/>
+    </row>
+    <row r="17" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="81"/>
-    </row>
-    <row r="17" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="79"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="81"/>
-    </row>
-    <row r="19" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="63" t="s">
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="83"/>
+    </row>
+    <row r="18" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="80"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="83"/>
+    </row>
+    <row r="20" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="64"/>
-    </row>
-    <row r="20" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="71" t="s">
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="64"/>
+    </row>
+    <row r="21" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="73" t="s">
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="76"/>
-    </row>
-    <row r="21" spans="1:11" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="81"/>
-    </row>
-    <row r="22" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="79" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="76"/>
+    </row>
+    <row r="22" spans="1:11" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
       <c r="K22" s="83"/>
     </row>
     <row r="23" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="79"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="81"/>
+      <c r="A23" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+    </row>
+    <row r="24" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="80"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="83"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="26">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:K16"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:K23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I12">
@@ -3847,7 +3876,7 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C21" sqref="C21:K21"/>
     </sheetView>
   </sheetViews>
@@ -3898,20 +3927,20 @@
     </row>
     <row r="3" spans="1:13" ht="12" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="96" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
+      <c r="C4" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
       <c r="G4" s="19"/>
-      <c r="H4" s="94" t="s">
+      <c r="H4" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="94"/>
+      <c r="I4" s="93"/>
       <c r="J4" s="48" t="s">
         <v>5</v>
       </c>
@@ -3920,30 +3949,30 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="95"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
       <c r="G5" s="19"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
       <c r="J5" s="48" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="78">
-        <v>45232</v>
+        <v>45432</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="95"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
       <c r="G6" s="19"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
       <c r="J6" s="48" t="s">
         <v>5</v>
       </c>
@@ -3953,53 +3982,53 @@
       <c r="A7" s="6"/>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
       <c r="G8" s="29"/>
-      <c r="H8" s="99" t="s">
+      <c r="H8" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="99"/>
+      <c r="I8" s="89"/>
       <c r="J8" s="42"/>
       <c r="K8" s="42"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="99"/>
-      <c r="B9" s="99"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="41"/>
       <c r="D9" s="27"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
       <c r="J9" s="41"/>
       <c r="K9" s="41"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="99"/>
-      <c r="B10" s="99"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="41"/>
       <c r="D10" s="27"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
@@ -4030,91 +4059,91 @@
       <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="96" t="s">
+      <c r="B13" s="88"/>
+      <c r="C13" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="98"/>
+    </row>
+    <row r="14" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="88"/>
+      <c r="C14" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="98"/>
+    </row>
+    <row r="15" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="95"/>
+      <c r="C15" s="99">
+        <v>45656</v>
+      </c>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+    </row>
+    <row r="16" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="100" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+    </row>
+    <row r="17" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="95"/>
+      <c r="C17" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="97"/>
-    </row>
-    <row r="14" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="89" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="97"/>
-    </row>
-    <row r="15" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="87">
-        <v>45473</v>
-      </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-    </row>
-    <row r="16" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="91" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-    </row>
-    <row r="17" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
     </row>
     <row r="18" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
@@ -4145,91 +4174,91 @@
       <c r="K19" s="25"/>
     </row>
     <row r="20" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="93" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
     </row>
     <row r="21" spans="1:11" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="100" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
     </row>
     <row r="22" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="91" t="s">
+      <c r="A22" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="92"/>
-      <c r="C22" s="87">
-        <v>45473</v>
-      </c>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="99">
+        <v>45656</v>
+      </c>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
     </row>
     <row r="23" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="91" t="s">
+      <c r="A23" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
+      <c r="C23" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
     </row>
     <row r="24" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="91" t="s">
+      <c r="A24" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="101"/>
     </row>
     <row r="25" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
@@ -4259,16 +4288,14 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H8:I10"/>
-    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="C20:K20"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="H4:I6"/>
@@ -4284,14 +4311,16 @@
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="C23:K23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H8:I10"/>
+    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="I11">
     <cfRule type="dataBar" priority="1">
@@ -4553,8 +4582,8 @@
   </sheetPr>
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:K21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="93" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4604,52 +4633,52 @@
     </row>
     <row r="3" spans="1:13" ht="12" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="96" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="102" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D4" s="102"/>
       <c r="E4" s="102"/>
       <c r="F4" s="102"/>
       <c r="G4" s="19"/>
-      <c r="H4" s="94" t="s">
+      <c r="H4" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="94"/>
+      <c r="I4" s="93"/>
       <c r="J4" s="48" t="s">
         <v>5</v>
       </c>
       <c r="K4" s="78">
-        <v>45098</v>
+        <v>45432</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="95"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="102"/>
       <c r="D5" s="102"/>
       <c r="E5" s="102"/>
       <c r="F5" s="102"/>
       <c r="G5" s="19"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
       <c r="J5" s="48" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="78">
-        <v>45232</v>
+        <v>45432</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="95"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="102"/>
       <c r="D6" s="102"/>
       <c r="E6" s="102"/>
       <c r="F6" s="102"/>
       <c r="G6" s="19"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
       <c r="J6" s="43" t="s">
         <v>5</v>
       </c>
@@ -4659,53 +4688,53 @@
       <c r="A7" s="6"/>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
       <c r="G8" s="29"/>
-      <c r="H8" s="99" t="s">
+      <c r="H8" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="99"/>
+      <c r="I8" s="89"/>
       <c r="J8" s="42"/>
       <c r="K8" s="42"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="99"/>
-      <c r="B9" s="99"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="41"/>
       <c r="D9" s="27"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
       <c r="J9" s="41"/>
       <c r="K9" s="41"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="99"/>
-      <c r="B10" s="99"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="41"/>
       <c r="D10" s="27"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
@@ -4736,12 +4765,12 @@
       <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="90"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="102" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D13" s="102"/>
       <c r="E13" s="102"/>
@@ -4753,12 +4782,12 @@
       <c r="K13" s="103"/>
     </row>
     <row r="14" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="90"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="102" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D14" s="102"/>
       <c r="E14" s="102"/>
@@ -4770,13 +4799,11 @@
       <c r="K14" s="103"/>
     </row>
     <row r="15" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="104">
-        <v>45473</v>
-      </c>
+      <c r="B15" s="95"/>
+      <c r="C15" s="104"/>
       <c r="D15" s="104"/>
       <c r="E15" s="104"/>
       <c r="F15" s="104"/>
@@ -4787,14 +4814,14 @@
       <c r="K15" s="104"/>
     </row>
     <row r="16" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="95" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="102" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D16" s="102"/>
       <c r="E16" s="102"/>
@@ -4806,12 +4833,12 @@
       <c r="K16" s="103"/>
     </row>
     <row r="17" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="92"/>
+      <c r="B17" s="95"/>
       <c r="C17" s="102" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D17" s="102"/>
       <c r="E17" s="102"/>
@@ -4851,12 +4878,12 @@
       <c r="K19" s="25"/>
     </row>
     <row r="20" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="90"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="102" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D20" s="102"/>
       <c r="E20" s="102"/>
@@ -4868,12 +4895,12 @@
       <c r="K20" s="103"/>
     </row>
     <row r="21" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="90"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="102" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D21" s="102"/>
       <c r="E21" s="102"/>
@@ -4885,13 +4912,11 @@
       <c r="K21" s="103"/>
     </row>
     <row r="22" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="91" t="s">
+      <c r="A22" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="92"/>
-      <c r="C22" s="104">
-        <v>45473</v>
-      </c>
+      <c r="B22" s="95"/>
+      <c r="C22" s="104"/>
       <c r="D22" s="104"/>
       <c r="E22" s="104"/>
       <c r="F22" s="104"/>
@@ -4902,14 +4927,14 @@
       <c r="K22" s="104"/>
     </row>
     <row r="23" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="91" t="s">
+      <c r="A23" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="95" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="102" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D23" s="102"/>
       <c r="E23" s="102"/>
@@ -4921,12 +4946,12 @@
       <c r="K23" s="103"/>
     </row>
     <row r="24" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="91" t="s">
+      <c r="A24" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="92"/>
+      <c r="B24" s="95"/>
       <c r="C24" s="102" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D24" s="102"/>
       <c r="E24" s="102"/>
@@ -4952,6 +4977,29 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="L10:M10"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:K13"/>
     <mergeCell ref="B4:B6"/>
@@ -4962,29 +5010,6 @@
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="C23:K23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C20:K20"/>
   </mergeCells>
   <conditionalFormatting sqref="I11">
     <cfRule type="dataBar" priority="1">
@@ -5239,21 +5264,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="d11334d1-3090-4972-8c0b-7108c373ef01">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d20e4035-f011-421f-925e-d638cf726981">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fc7a3a96-1994-4234-a628-0adf8ab2a685" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5505,31 +5521,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="d11334d1-3090-4972-8c0b-7108c373ef01">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d20e4035-f011-421f-925e-d638cf726981">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fc7a3a96-1994-4234-a628-0adf8ab2a685" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36E27049-9B52-46EC-95DB-2594F0635EDE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D095C791-A4EB-49DD-9703-419F259E142F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="406e2ee8-7bff-448f-9591-98b85036ac25"/>
-    <ds:schemaRef ds:uri="237adf88-7d35-4695-a4cc-0e83eb2c0149"/>
-    <ds:schemaRef ds:uri="d7d73a18-8265-40a5-a265-e6d8ed902083"/>
-    <ds:schemaRef ds:uri="d11334d1-3090-4972-8c0b-7108c373ef01"/>
-    <ds:schemaRef ds:uri="d20e4035-f011-421f-925e-d638cf726981"/>
-    <ds:schemaRef ds:uri="fc7a3a96-1994-4234-a628-0adf8ab2a685"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5555,9 +5567,22 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D095C791-A4EB-49DD-9703-419F259E142F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36E27049-9B52-46EC-95DB-2594F0635EDE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="406e2ee8-7bff-448f-9591-98b85036ac25"/>
+    <ds:schemaRef ds:uri="237adf88-7d35-4695-a4cc-0e83eb2c0149"/>
+    <ds:schemaRef ds:uri="d7d73a18-8265-40a5-a265-e6d8ed902083"/>
+    <ds:schemaRef ds:uri="d11334d1-3090-4972-8c0b-7108c373ef01"/>
+    <ds:schemaRef ds:uri="d20e4035-f011-421f-925e-d638cf726981"/>
+    <ds:schemaRef ds:uri="fc7a3a96-1994-4234-a628-0adf8ab2a685"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>